--- a/Download/Movie_Data.xlsx
+++ b/Download/Movie_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Sociale grafer og interaktioner\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D942C5-D9C2-425E-8ECC-6532D396895F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621EB6B-3A78-42CB-8CA4-3BC084A27749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DA24713-3E37-487E-B890-6503555A589C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$G$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$G$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="456">
   <si>
     <t>Movie</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Arthur Christmas</t>
   </si>
   <si>
-    <t>The Pirates! Band of Misfits</t>
-  </si>
-  <si>
     <t>Hotel Transylvania</t>
   </si>
   <si>
@@ -602,9 +599,6 @@
     <t>Toy Story 3</t>
   </si>
   <si>
-    <t>Tales from Earthsea (film)</t>
-  </si>
-  <si>
     <t>Tangled</t>
   </si>
   <si>
@@ -1250,9 +1244,6 @@
     <t>toy_story_3</t>
   </si>
   <si>
-    <t>tales_from_earthsea</t>
-  </si>
-  <si>
     <t>cars_2</t>
   </si>
   <si>
@@ -1410,6 +1401,9 @@
   </si>
   <si>
     <t>coco_2017</t>
+  </si>
+  <si>
+    <t>The Pirates! In an Adventure with Scientists!</t>
   </si>
 </sst>
 </file>
@@ -1823,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845DC258-5227-4F56-BE46-0558583FE6FE}">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1879,11 +1873,11 @@
         <v>5.8</v>
       </c>
       <c r="F2" s="3">
-        <f>IFERROR((E2-D2)/D2*100,"")</f>
+        <f t="shared" ref="F2:F65" si="0">IFERROR((E2-D2)/D2*100,"")</f>
         <v>-3.3333333333333361</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1903,11 +1897,11 @@
         <v>230.4</v>
       </c>
       <c r="F3" s="3">
-        <f>IFERROR((E3-D3)/D3*100,"")</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1927,11 +1921,11 @@
         <v>3.6</v>
       </c>
       <c r="F4" s="3">
-        <f>IFERROR((E4-D4)/D4*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-88.75</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1951,11 +1945,11 @@
         <v>38.1</v>
       </c>
       <c r="F5" s="3">
-        <f>IFERROR((E5-D5)/D5*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-4.7499999999999964</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1975,11 +1969,11 @@
         <v>31.3</v>
       </c>
       <c r="F6" s="3">
-        <f>IFERROR((E6-D6)/D6*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-60.875</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1999,16 +1993,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="3">
-        <f>IFERROR((E7-D7)/D7*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2023,11 +2017,11 @@
         <v>68.5</v>
       </c>
       <c r="F8" s="3">
-        <f>IFERROR((E8-D8)/D8*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-14.374999999999998</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2047,11 +2041,11 @@
         <v>469.2</v>
       </c>
       <c r="F9" s="3">
-        <f>IFERROR((E9-D9)/D9*100,"")</f>
+        <f t="shared" si="0"/>
         <v>681.99999999999989</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2071,11 +2065,11 @@
         <v>182.4</v>
       </c>
       <c r="F10" s="3">
-        <f>IFERROR((E10-D10)/D10*100,"")</f>
+        <f t="shared" si="0"/>
         <v>160.57142857142858</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2095,11 +2089,11 @@
         <v>310.10000000000002</v>
       </c>
       <c r="F11" s="3">
-        <f>IFERROR((E11-D11)/D11*100,"")</f>
+        <f t="shared" si="0"/>
         <v>287.625</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2119,11 +2113,11 @@
         <v>122.6</v>
       </c>
       <c r="F12" s="3">
-        <f>IFERROR((E12-D12)/D12*100,"")</f>
+        <f t="shared" si="0"/>
         <v>75.142857142857139</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2143,11 +2137,11 @@
         <v>52.1</v>
       </c>
       <c r="F13" s="3">
-        <f>IFERROR((E13-D13)/D13*100,"")</f>
+        <f t="shared" si="0"/>
         <v>421</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2167,11 +2161,11 @@
         <v>212.2</v>
       </c>
       <c r="F14" s="3">
-        <f>IFERROR((E14-D14)/D14*100,"")</f>
+        <f t="shared" si="0"/>
         <v>165.25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2191,11 +2185,11 @@
         <v>191.1</v>
       </c>
       <c r="F15" s="3">
-        <f>IFERROR((E15-D15)/D15*100,"")</f>
+        <f t="shared" si="0"/>
         <v>93.030303030303031</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2215,11 +2209,11 @@
         <v>23.8</v>
       </c>
       <c r="F16" s="3">
-        <f>IFERROR((E16-D16)/D16*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-73.555555555555557</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2239,11 +2233,11 @@
         <v>543</v>
       </c>
       <c r="F17" s="3">
-        <f>IFERROR((E17-D17)/D17*100,"")</f>
+        <f t="shared" si="0"/>
         <v>686.95652173913049</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2263,11 +2257,11 @@
         <v>184</v>
       </c>
       <c r="F18" s="3">
-        <f>IFERROR((E18-D18)/D18*100,"")</f>
+        <f t="shared" si="0"/>
         <v>192.06349206349208</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2287,11 +2281,11 @@
         <v>348</v>
       </c>
       <c r="F19" s="3">
-        <f>IFERROR((E19-D19)/D19*100,"")</f>
+        <f t="shared" si="0"/>
         <v>397.14285714285717</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2311,11 +2305,11 @@
         <v>970</v>
       </c>
       <c r="F20" s="3">
-        <f>IFERROR((E20-D20)/D20*100,"")</f>
+        <f t="shared" si="0"/>
         <v>1176.3157894736842</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2335,11 +2329,11 @@
         <v>1159</v>
       </c>
       <c r="F21" s="3">
-        <f>IFERROR((E21-D21)/D21*100,"")</f>
+        <f t="shared" si="0"/>
         <v>1466.2162162162163</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2359,11 +2353,11 @@
         <v>875</v>
       </c>
       <c r="F22" s="3">
-        <f>IFERROR((E22-D22)/D22*100,"")</f>
+        <f t="shared" si="0"/>
         <v>1066.6666666666665</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2383,11 +2377,11 @@
         <v>634</v>
       </c>
       <c r="F23" s="3">
-        <f>IFERROR((E23-D23)/D23*100,"")</f>
+        <f t="shared" si="0"/>
         <v>745.33333333333326</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2407,11 +2401,11 @@
         <v>1034</v>
       </c>
       <c r="F24" s="3">
-        <f>IFERROR((E24-D24)/D24*100,"")</f>
+        <f t="shared" si="0"/>
         <v>1192.5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2431,11 +2425,11 @@
         <v>511</v>
       </c>
       <c r="F25" s="3">
-        <f>IFERROR((E25-D25)/D25*100,"")</f>
+        <f t="shared" si="0"/>
         <v>581.33333333333337</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2455,11 +2449,11 @@
         <v>430</v>
       </c>
       <c r="F26" s="3">
-        <f>IFERROR((E26-D26)/D26*100,"")</f>
+        <f t="shared" si="0"/>
         <v>437.5</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2479,11 +2473,11 @@
         <v>171</v>
       </c>
       <c r="F27" s="3">
-        <f>IFERROR((E27-D27)/D27*100,"")</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2503,11 +2497,11 @@
         <v>218</v>
       </c>
       <c r="F28" s="3">
-        <f>IFERROR((E28-D28)/D28*100,"")</f>
+        <f t="shared" si="0"/>
         <v>211.42857142857144</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2527,11 +2521,11 @@
         <v>76</v>
       </c>
       <c r="F29" s="3">
-        <f>IFERROR((E29-D29)/D29*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2551,11 +2545,11 @@
         <v>225</v>
       </c>
       <c r="F30" s="3">
-        <f>IFERROR((E30-D30)/D30*100,"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2575,11 +2569,11 @@
         <v>484</v>
       </c>
       <c r="F31" s="3">
-        <f>IFERROR((E31-D31)/D31*100,"")</f>
+        <f t="shared" si="0"/>
         <v>706.66666666666663</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2599,11 +2593,11 @@
         <v>123</v>
       </c>
       <c r="F32" s="3">
-        <f>IFERROR((E32-D32)/D32*100,"")</f>
+        <f t="shared" si="0"/>
         <v>53.75</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2623,11 +2617,11 @@
         <v>81</v>
       </c>
       <c r="F33" s="3">
-        <f>IFERROR((E33-D33)/D33*100,"")</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2647,11 +2641,11 @@
         <v>920</v>
       </c>
       <c r="F34" s="3">
-        <f>IFERROR((E34-D34)/D34*100,"")</f>
+        <f t="shared" si="0"/>
         <v>513.33333333333337</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2671,11 +2665,11 @@
         <v>367</v>
       </c>
       <c r="F35" s="3">
-        <f>IFERROR((E35-D35)/D35*100,"")</f>
+        <f t="shared" si="0"/>
         <v>389.33333333333337</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2695,11 +2689,11 @@
         <v>533</v>
       </c>
       <c r="F36" s="3">
-        <f>IFERROR((E36-D36)/D36*100,"")</f>
+        <f t="shared" si="0"/>
         <v>610.66666666666663</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2719,11 +2713,11 @@
         <v>192</v>
       </c>
       <c r="F37" s="3">
-        <f>IFERROR((E37-D37)/D37*100,"")</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2743,11 +2737,11 @@
         <v>336</v>
       </c>
       <c r="F38" s="3">
-        <f>IFERROR((E38-D38)/D38*100,"")</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2767,11 +2761,11 @@
         <v>178</v>
       </c>
       <c r="F39" s="3">
-        <f>IFERROR((E39-D39)/D39*100,"")</f>
+        <f t="shared" si="0"/>
         <v>19.463087248322147</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2791,11 +2785,11 @@
         <v>799</v>
       </c>
       <c r="F40" s="3">
-        <f>IFERROR((E40-D40)/D40*100,"")</f>
+        <f t="shared" si="0"/>
         <v>399.375</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2815,11 +2809,11 @@
         <v>287</v>
       </c>
       <c r="F41" s="3">
-        <f>IFERROR((E41-D41)/D41*100,"")</f>
+        <f t="shared" si="0"/>
         <v>91.333333333333329</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2839,11 +2833,11 @@
         <v>632</v>
       </c>
       <c r="F42" s="3">
-        <f>IFERROR((E42-D42)/D42*100,"")</f>
+        <f t="shared" si="0"/>
         <v>386.15384615384613</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2863,11 +2857,11 @@
         <v>604</v>
       </c>
       <c r="F43" s="3">
-        <f>IFERROR((E43-D43)/D43*100,"")</f>
+        <f t="shared" si="0"/>
         <v>302.66666666666669</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2887,11 +2881,11 @@
         <v>382</v>
       </c>
       <c r="F44" s="3">
-        <f>IFERROR((E44-D44)/D44*100,"")</f>
+        <f t="shared" si="0"/>
         <v>118.28571428571428</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2911,11 +2905,11 @@
         <v>495</v>
       </c>
       <c r="F45" s="3">
-        <f>IFERROR((E45-D45)/D45*100,"")</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2935,11 +2929,11 @@
         <v>753</v>
       </c>
       <c r="F46" s="3">
-        <f>IFERROR((E46-D46)/D46*100,"")</f>
+        <f t="shared" si="0"/>
         <v>356.36363636363637</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2959,11 +2953,11 @@
         <v>322</v>
       </c>
       <c r="F47" s="3">
-        <f>IFERROR((E47-D47)/D47*100,"")</f>
+        <f t="shared" si="0"/>
         <v>147.69230769230771</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2983,11 +2977,11 @@
         <v>665</v>
       </c>
       <c r="F48" s="3">
-        <f>IFERROR((E48-D48)/D48*100,"")</f>
+        <f t="shared" si="0"/>
         <v>343.33333333333331</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3007,11 +3001,11 @@
         <v>555</v>
       </c>
       <c r="F49" s="3">
-        <f>IFERROR((E49-D49)/D49*100,"")</f>
+        <f t="shared" si="0"/>
         <v>326.92307692307691</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3031,11 +3025,11 @@
         <v>747</v>
       </c>
       <c r="F50" s="3">
-        <f>IFERROR((E50-D50)/D50*100,"")</f>
+        <f t="shared" si="0"/>
         <v>415.17241379310343</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3055,11 +3049,11 @@
         <v>307</v>
       </c>
       <c r="F51" s="3">
-        <f>IFERROR((E51-D51)/D51*100,"")</f>
+        <f t="shared" si="0"/>
         <v>111.72413793103448</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3079,11 +3073,11 @@
         <v>587</v>
       </c>
       <c r="F52" s="3">
-        <f>IFERROR((E52-D52)/D52*100,"")</f>
+        <f t="shared" si="0"/>
         <v>334.81481481481478</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3103,11 +3097,11 @@
         <v>283</v>
       </c>
       <c r="F53" s="3">
-        <f>IFERROR((E53-D53)/D53*100,"")</f>
+        <f t="shared" si="0"/>
         <v>122.83464566929135</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3127,11 +3121,11 @@
         <v>276</v>
       </c>
       <c r="F54" s="3">
-        <f>IFERROR((E54-D54)/D54*100,"")</f>
+        <f t="shared" si="0"/>
         <v>90.344827586206904</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3151,11 +3145,11 @@
         <v>621</v>
       </c>
       <c r="F55" s="3">
-        <f>IFERROR((E55-D55)/D55*100,"")</f>
+        <f t="shared" si="0"/>
         <v>381.39534883720933</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3175,11 +3169,11 @@
         <v>373</v>
       </c>
       <c r="F56" s="3">
-        <f>IFERROR((E56-D56)/D56*100,"")</f>
+        <f t="shared" si="0"/>
         <v>182.57575757575756</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3199,11 +3193,11 @@
         <v>386</v>
       </c>
       <c r="F57" s="3">
-        <f>IFERROR((E57-D57)/D57*100,"")</f>
+        <f t="shared" si="0"/>
         <v>185.92592592592592</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3223,11 +3217,11 @@
         <v>521</v>
       </c>
       <c r="F58" s="3">
-        <f>IFERROR((E58-D58)/D58*100,"")</f>
+        <f t="shared" si="0"/>
         <v>259.31034482758616</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3247,11 +3241,11 @@
         <v>346</v>
       </c>
       <c r="F59" s="3">
-        <f>IFERROR((E59-D59)/D59*100,"")</f>
+        <f t="shared" si="0"/>
         <v>176.8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3271,11 +3265,11 @@
         <v>528</v>
       </c>
       <c r="F60" s="3">
-        <f>IFERROR((E60-D60)/D60*100,"")</f>
+        <f t="shared" si="0"/>
         <v>322.40000000000003</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3295,11 +3289,11 @@
         <v>125</v>
       </c>
       <c r="F61" s="3">
-        <f>IFERROR((E61-D61)/D61*100,"")</f>
+        <f t="shared" si="0"/>
         <v>228.9473684210526</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3319,11 +3313,11 @@
         <v>519</v>
       </c>
       <c r="F62" s="3">
-        <f>IFERROR((E62-D62)/D62*100,"")</f>
+        <f t="shared" si="0"/>
         <v>302.32558139534882</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3343,11 +3337,11 @@
         <v>162</v>
       </c>
       <c r="F63" s="3">
-        <f>IFERROR((E63-D63)/D63*100,"")</f>
+        <f t="shared" si="0"/>
         <v>115.99999999999999</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3367,11 +3361,11 @@
         <v>23.2</v>
       </c>
       <c r="F64" s="3">
-        <f>IFERROR((E64-D64)/D64*100,"")</f>
+        <f t="shared" si="0"/>
         <v>-76.8</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3391,11 +3385,11 @@
         <v>383.3</v>
       </c>
       <c r="F65" s="3">
-        <f>IFERROR((E65-D65)/D65*100,"")</f>
+        <f t="shared" si="0"/>
         <v>549.66101694915255</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -3416,11 +3410,11 @@
         <v>260.7</v>
       </c>
       <c r="F66" s="3">
-        <f>IFERROR((E66-D66)/D66*100,"")</f>
+        <f t="shared" ref="F66:F129" si="1">IFERROR((E66-D66)/D66*100,"")</f>
         <v>247.6</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3440,11 +3434,11 @@
         <v>660.9</v>
       </c>
       <c r="F67" s="3">
-        <f>IFERROR((E67-D67)/D67*100,"")</f>
+        <f t="shared" si="1"/>
         <v>726.125</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3464,11 +3458,11 @@
         <v>298.60000000000002</v>
       </c>
       <c r="F68" s="3">
-        <f>IFERROR((E68-D68)/D68*100,"")</f>
+        <f t="shared" si="1"/>
         <v>251.29411764705884</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3488,11 +3482,11 @@
         <v>886</v>
       </c>
       <c r="F69" s="3">
-        <f>IFERROR((E69-D69)/D69*100,"")</f>
+        <f t="shared" si="1"/>
         <v>884.44444444444446</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3512,11 +3506,11 @@
         <v>484.6</v>
       </c>
       <c r="F70" s="3">
-        <f>IFERROR((E70-D70)/D70*100,"")</f>
+        <f t="shared" si="1"/>
         <v>438.44444444444451</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3536,11 +3530,11 @@
         <v>877.2</v>
       </c>
       <c r="F71" s="3">
-        <f>IFERROR((E71-D71)/D71*100,"")</f>
+        <f t="shared" si="1"/>
         <v>823.36842105263167</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3560,11 +3554,11 @@
         <v>268.39999999999998</v>
       </c>
       <c r="F72" s="3">
-        <f>IFERROR((E72-D72)/D72*100,"")</f>
+        <f t="shared" si="1"/>
         <v>188.60215053763437</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3584,11 +3578,11 @@
         <v>498.8</v>
       </c>
       <c r="F73" s="3">
-        <f>IFERROR((E73-D73)/D73*100,"")</f>
+        <f t="shared" si="1"/>
         <v>384.27184466019418</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3608,11 +3602,11 @@
         <v>246.2</v>
       </c>
       <c r="F74" s="3">
-        <f>IFERROR((E74-D74)/D74*100,"")</f>
+        <f t="shared" si="1"/>
         <v>148.68686868686868</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3632,11 +3626,11 @@
         <v>408.6</v>
       </c>
       <c r="F75" s="3">
-        <f>IFERROR((E75-D75)/D75*100,"")</f>
+        <f t="shared" si="1"/>
         <v>289.14285714285717</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3656,19 +3650,19 @@
         <v>296.10000000000002</v>
       </c>
       <c r="F76" s="3">
-        <f>IFERROR((E76-D76)/D76*100,"")</f>
+        <f t="shared" si="1"/>
         <v>166.75675675675677</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77">
         <v>2006</v>
@@ -3680,19 +3674,19 @@
         <v>200</v>
       </c>
       <c r="F77" s="3">
-        <f>IFERROR((E77-D77)/D77*100,"")</f>
+        <f t="shared" si="1"/>
         <v>135.29411764705884</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>2007</v>
@@ -3704,19 +3698,19 @@
         <v>149</v>
       </c>
       <c r="F78" s="3">
-        <f>IFERROR((E78-D78)/D78*100,"")</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79">
         <v>2009</v>
@@ -3728,19 +3722,19 @@
         <v>243</v>
       </c>
       <c r="F79" s="3">
-        <f>IFERROR((E79-D79)/D79*100,"")</f>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80">
         <v>2011</v>
@@ -3752,11 +3746,11 @@
         <v>564</v>
       </c>
       <c r="F80" s="3">
-        <f>IFERROR((E80-D80)/D80*100,"")</f>
+        <f t="shared" si="1"/>
         <v>412.72727272727269</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3764,7 +3758,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81">
         <v>2011</v>
@@ -3776,19 +3770,19 @@
         <v>147</v>
       </c>
       <c r="F81" s="3">
-        <f>IFERROR((E81-D81)/D81*100,"")</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82">
         <v>2012</v>
@@ -3800,19 +3794,19 @@
         <v>123</v>
       </c>
       <c r="F82" s="3">
-        <f>IFERROR((E82-D82)/D82*100,"")</f>
+        <f t="shared" si="1"/>
         <v>123.63636363636363</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83">
         <v>2012</v>
@@ -3824,19 +3818,19 @@
         <v>358</v>
       </c>
       <c r="F83" s="3">
-        <f>IFERROR((E83-D83)/D83*100,"")</f>
+        <f t="shared" si="1"/>
         <v>321.1764705882353</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84">
         <v>2013</v>
@@ -3848,19 +3842,19 @@
         <v>347</v>
       </c>
       <c r="F84" s="3">
-        <f>IFERROR((E84-D84)/D84*100,"")</f>
+        <f t="shared" si="1"/>
         <v>230.47619047619045</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85">
         <v>2013</v>
@@ -3872,19 +3866,19 @@
         <v>274</v>
       </c>
       <c r="F85" s="3">
-        <f>IFERROR((E85-D85)/D85*100,"")</f>
+        <f t="shared" si="1"/>
         <v>251.28205128205127</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>2015</v>
@@ -3896,19 +3890,19 @@
         <v>475</v>
       </c>
       <c r="F86" s="3">
-        <f>IFERROR((E86-D86)/D86*100,"")</f>
+        <f t="shared" si="1"/>
         <v>493.75</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>2015</v>
@@ -3920,19 +3914,19 @@
         <v>150</v>
       </c>
       <c r="F87" s="3">
-        <f>IFERROR((E87-D87)/D87*100,"")</f>
+        <f t="shared" si="1"/>
         <v>78.571428571428569</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88">
         <v>2017</v>
@@ -3944,19 +3938,19 @@
         <v>197</v>
       </c>
       <c r="F88" s="3">
-        <f>IFERROR((E88-D88)/D88*100,"")</f>
+        <f t="shared" si="1"/>
         <v>228.33333333333331</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>2017</v>
@@ -3968,19 +3962,19 @@
         <v>217</v>
       </c>
       <c r="F89" s="3">
-        <f>IFERROR((E89-D89)/D89*100,"")</f>
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90">
         <v>2017</v>
@@ -3992,19 +3986,19 @@
         <v>85</v>
       </c>
       <c r="F90" s="3">
-        <f>IFERROR((E90-D90)/D90*100,"")</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>2018</v>
@@ -4016,19 +4010,19 @@
         <v>351</v>
       </c>
       <c r="F91" s="3">
-        <f>IFERROR((E91-D91)/D91*100,"")</f>
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>2018</v>
@@ -4040,19 +4034,19 @@
         <v>528</v>
       </c>
       <c r="F92" s="3">
-        <f>IFERROR((E92-D92)/D92*100,"")</f>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93">
         <v>2018</v>
@@ -4064,19 +4058,19 @@
         <v>93</v>
       </c>
       <c r="F93" s="3">
-        <f>IFERROR((E93-D93)/D93*100,"")</f>
+        <f t="shared" si="1"/>
         <v>165.71428571428572</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>2018</v>
@@ -4088,19 +4082,19 @@
         <v>375</v>
       </c>
       <c r="F94" s="3">
-        <f>IFERROR((E94-D94)/D94*100,"")</f>
+        <f t="shared" si="1"/>
         <v>316.66666666666663</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>95</v>
       </c>
       <c r="C95">
         <v>2019</v>
@@ -4112,19 +4106,19 @@
         <v>147</v>
       </c>
       <c r="F95" s="3">
-        <f>IFERROR((E95-D95)/D95*100,"")</f>
+        <f t="shared" si="1"/>
         <v>72.941176470588232</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>1982</v>
@@ -4136,19 +4130,19 @@
         <v>14.7</v>
       </c>
       <c r="F96" s="3">
-        <f>IFERROR((E96-D96)/D96*100,"")</f>
+        <f t="shared" si="1"/>
         <v>109.99999999999999</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>1986</v>
@@ -4160,19 +4154,19 @@
         <v>84.5</v>
       </c>
       <c r="F97" s="3">
-        <f>IFERROR((E97-D97)/D97*100,"")</f>
+        <f t="shared" si="1"/>
         <v>838.88888888888891</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98">
         <v>1988</v>
@@ -4184,19 +4178,19 @@
         <v>84.5</v>
       </c>
       <c r="F98" s="3">
-        <f>IFERROR((E98-D98)/D98*100,"")</f>
+        <f t="shared" si="1"/>
         <v>604.16666666666674</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>1989</v>
@@ -4208,19 +4202,19 @@
         <v>27.1</v>
       </c>
       <c r="F99" s="3">
-        <f>IFERROR((E99-D99)/D99*100,"")</f>
+        <f t="shared" si="1"/>
         <v>96.376811594202891</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>1992</v>
@@ -4232,19 +4226,19 @@
         <v>11.7</v>
       </c>
       <c r="F100" s="3">
-        <f>IFERROR((E100-D100)/D100*100,"")</f>
+        <f t="shared" si="1"/>
         <v>-35</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101">
         <v>1994</v>
@@ -4253,19 +4247,19 @@
         <v>71.3</v>
       </c>
       <c r="F101" s="3" t="str">
-        <f>IFERROR((E101-D101)/D101*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G101" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>1995</v>
@@ -4277,19 +4271,19 @@
         <v>3.9</v>
       </c>
       <c r="F102" s="3">
-        <f>IFERROR((E102-D102)/D102*100,"")</f>
+        <f t="shared" si="1"/>
         <v>-86.071428571428584</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>1994</v>
@@ -4301,19 +4295,19 @@
         <v>11.3</v>
       </c>
       <c r="F103" s="3">
-        <f>IFERROR((E103-D103)/D103*100,"")</f>
+        <f t="shared" si="1"/>
         <v>-59.642857142857139</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="3">
         <v>1937</v>
@@ -4325,19 +4319,19 @@
         <v>418</v>
       </c>
       <c r="F104" s="3">
-        <f>IFERROR((E104-D104)/D104*100,"")</f>
+        <f t="shared" si="1"/>
         <v>27766.666666666668</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="3">
         <v>1940</v>
@@ -4349,19 +4343,19 @@
         <v>164</v>
       </c>
       <c r="F105" s="3">
-        <f>IFERROR((E105-D105)/D105*100,"")</f>
+        <f t="shared" si="1"/>
         <v>6207.6923076923076</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3">
         <v>1940</v>
@@ -4373,19 +4367,19 @@
         <v>80</v>
       </c>
       <c r="F106" s="3">
-        <f>IFERROR((E106-D106)/D106*100,"")</f>
+        <f t="shared" si="1"/>
         <v>3378.2608695652179</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3">
         <v>1941</v>
@@ -4397,19 +4391,19 @@
         <v>1.3</v>
       </c>
       <c r="F107" s="3">
-        <f>IFERROR((E107-D107)/D107*100,"")</f>
+        <f t="shared" si="1"/>
         <v>36.842105263157904</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" s="3">
         <v>1942</v>
@@ -4421,19 +4415,19 @@
         <v>267.39999999999998</v>
       </c>
       <c r="F108" s="3">
-        <f>IFERROR((E108-D108)/D108*100,"")</f>
+        <f t="shared" si="1"/>
         <v>30993.023255813951</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="3">
         <v>1942</v>
@@ -4443,19 +4437,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F109" s="3" t="str">
-        <f>IFERROR((E109-D109)/D109*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G109" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3">
         <v>1944</v>
@@ -4465,19 +4459,19 @@
         <v>3.4</v>
       </c>
       <c r="F110" s="3" t="str">
-        <f>IFERROR((E110-D110)/D110*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G110" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="3">
         <v>1946</v>
@@ -4489,19 +4483,19 @@
         <v>3.3</v>
       </c>
       <c r="F111" s="3">
-        <f>IFERROR((E111-D111)/D111*100,"")</f>
+        <f t="shared" si="1"/>
         <v>144.44444444444443</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3">
         <v>1947</v>
@@ -4511,19 +4505,19 @@
         <v>3.2</v>
       </c>
       <c r="F112" s="3" t="str">
-        <f>IFERROR((E112-D112)/D112*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G112" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3">
         <v>1948</v>
@@ -4535,19 +4529,19 @@
         <v>2.6</v>
       </c>
       <c r="F113" s="3">
-        <f>IFERROR((E113-D113)/D113*100,"")</f>
+        <f t="shared" si="1"/>
         <v>73.333333333333343</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3">
         <v>1949</v>
@@ -4557,19 +4551,19 @@
         <v>1.6</v>
       </c>
       <c r="F114" s="3" t="str">
-        <f>IFERROR((E114-D114)/D114*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G114" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="3">
         <v>1950</v>
@@ -4581,19 +4575,19 @@
         <v>263.60000000000002</v>
       </c>
       <c r="F115" s="3">
-        <f>IFERROR((E115-D115)/D115*100,"")</f>
+        <f t="shared" si="1"/>
         <v>8989.6551724137953</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="3">
         <v>1951</v>
@@ -4605,19 +4599,19 @@
         <v>5.6</v>
       </c>
       <c r="F116" s="3">
-        <f>IFERROR((E116-D116)/D116*100,"")</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666657</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="3">
         <v>1953</v>
@@ -4629,19 +4623,19 @@
         <v>87.4</v>
       </c>
       <c r="F117" s="3">
-        <f>IFERROR((E117-D117)/D117*100,"")</f>
+        <f t="shared" si="1"/>
         <v>2085</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="3">
         <v>1955</v>
@@ -4653,19 +4647,19 @@
         <v>187</v>
       </c>
       <c r="F118" s="3">
-        <f>IFERROR((E118-D118)/D118*100,"")</f>
+        <f t="shared" si="1"/>
         <v>4575</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="3">
         <v>1959</v>
@@ -4677,19 +4671,19 @@
         <v>51.6</v>
       </c>
       <c r="F119" s="3">
-        <f>IFERROR((E119-D119)/D119*100,"")</f>
+        <f t="shared" si="1"/>
         <v>760</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="3">
         <v>1961</v>
@@ -4701,19 +4695,19 @@
         <v>303</v>
       </c>
       <c r="F120" s="3">
-        <f>IFERROR((E120-D120)/D120*100,"")</f>
+        <f t="shared" si="1"/>
         <v>8316.6666666666661</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="3">
         <v>1963</v>
@@ -4725,19 +4719,19 @@
         <v>22.2</v>
       </c>
       <c r="F121" s="3">
-        <f>IFERROR((E121-D121)/D121*100,"")</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122" s="3">
         <v>1967</v>
@@ -4749,19 +4743,19 @@
         <v>378</v>
       </c>
       <c r="F122" s="3">
-        <f>IFERROR((E122-D122)/D122*100,"")</f>
+        <f t="shared" si="1"/>
         <v>9350</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123" s="3">
         <v>1970</v>
@@ -4773,19 +4767,19 @@
         <v>191</v>
       </c>
       <c r="F123" s="3">
-        <f>IFERROR((E123-D123)/D123*100,"")</f>
+        <f t="shared" si="1"/>
         <v>4675</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="3">
         <v>1973</v>
@@ -4797,19 +4791,19 @@
         <v>32</v>
       </c>
       <c r="F124" s="3">
-        <f>IFERROR((E124-D124)/D124*100,"")</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="3">
         <v>1977</v>
@@ -4817,19 +4811,19 @@
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="str">
-        <f>IFERROR((E125-D125)/D125*100,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G125" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="3">
         <v>1977</v>
@@ -4841,19 +4835,19 @@
         <v>169</v>
       </c>
       <c r="F126" s="3">
-        <f>IFERROR((E126-D126)/D126*100,"")</f>
+        <f t="shared" si="1"/>
         <v>2153.3333333333335</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C127" s="3">
         <v>1981</v>
@@ -4865,19 +4859,19 @@
         <v>63.5</v>
       </c>
       <c r="F127" s="3">
-        <f>IFERROR((E127-D127)/D127*100,"")</f>
+        <f t="shared" si="1"/>
         <v>429.16666666666669</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C128" s="3">
         <v>1985</v>
@@ -4889,19 +4883,19 @@
         <v>21.3</v>
       </c>
       <c r="F128" s="3">
-        <f>IFERROR((E128-D128)/D128*100,"")</f>
+        <f t="shared" si="1"/>
         <v>-51.590909090909086</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C129" s="3">
         <v>1986</v>
@@ -4913,19 +4907,19 @@
         <v>38.700000000000003</v>
       </c>
       <c r="F129" s="3">
-        <f>IFERROR((E129-D129)/D129*100,"")</f>
+        <f t="shared" si="1"/>
         <v>176.42857142857144</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C130" s="3">
         <v>1988</v>
@@ -4937,19 +4931,19 @@
         <v>121</v>
       </c>
       <c r="F130" s="3">
-        <f>IFERROR((E130-D130)/D130*100,"")</f>
+        <f t="shared" ref="F130:F192" si="2">IFERROR((E130-D130)/D130*100,"")</f>
         <v>290.32258064516128</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C131" s="3">
         <v>1989</v>
@@ -4961,19 +4955,19 @@
         <v>233</v>
       </c>
       <c r="F131" s="3">
-        <f>IFERROR((E131-D131)/D131*100,"")</f>
+        <f t="shared" si="2"/>
         <v>482.5</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="3">
         <v>1990</v>
@@ -4983,19 +4977,19 @@
         <v>47.4</v>
       </c>
       <c r="F132" s="3" t="str">
-        <f>IFERROR((E132-D132)/D132*100,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G132" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C133" s="3">
         <v>1991</v>
@@ -5007,19 +5001,19 @@
         <v>440.1</v>
       </c>
       <c r="F133" s="3">
-        <f>IFERROR((E133-D133)/D133*100,"")</f>
+        <f t="shared" si="2"/>
         <v>1660.3999999999999</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C134" s="3">
         <v>1992</v>
@@ -5031,19 +5025,19 @@
         <v>504.1</v>
       </c>
       <c r="F134" s="3">
-        <f>IFERROR((E134-D134)/D134*100,"")</f>
+        <f t="shared" si="2"/>
         <v>1700.3571428571429</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C135" s="3">
         <v>1994</v>
@@ -5055,19 +5049,19 @@
         <v>968.5</v>
       </c>
       <c r="F135" s="3">
-        <f>IFERROR((E135-D135)/D135*100,"")</f>
+        <f t="shared" si="2"/>
         <v>2052.2222222222222</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C136" s="3">
         <v>1995</v>
@@ -5077,19 +5071,19 @@
         <v>35.299999999999997</v>
       </c>
       <c r="F136" s="3" t="str">
-        <f>IFERROR((E136-D136)/D136*100,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G136" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" s="3">
         <v>1995</v>
@@ -5101,19 +5095,19 @@
         <v>346.1</v>
       </c>
       <c r="F137" s="3">
-        <f>IFERROR((E137-D137)/D137*100,"")</f>
+        <f t="shared" si="2"/>
         <v>529.27272727272725</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C138" s="3">
         <v>1995</v>
@@ -5125,19 +5119,19 @@
         <v>374</v>
       </c>
       <c r="F138" s="3">
-        <f>IFERROR((E138-D138)/D138*100,"")</f>
+        <f t="shared" si="2"/>
         <v>1146.6666666666667</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C139" s="3">
         <v>1996</v>
@@ -5149,19 +5143,19 @@
         <v>325.3</v>
       </c>
       <c r="F139" s="3">
-        <f>IFERROR((E139-D139)/D139*100,"")</f>
+        <f t="shared" si="2"/>
         <v>225.3</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140" s="3">
         <v>1997</v>
@@ -5173,19 +5167,19 @@
         <v>252.7</v>
       </c>
       <c r="F140" s="3">
-        <f>IFERROR((E140-D140)/D140*100,"")</f>
+        <f t="shared" si="2"/>
         <v>197.29411764705881</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" s="3">
         <v>1998</v>
@@ -5197,19 +5191,19 @@
         <v>304.3</v>
       </c>
       <c r="F141" s="3">
-        <f>IFERROR((E141-D141)/D141*100,"")</f>
+        <f t="shared" si="2"/>
         <v>238.11111111111111</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C142" s="3">
         <v>1998</v>
@@ -5221,19 +5215,19 @@
         <v>363.3</v>
       </c>
       <c r="F142" s="3">
-        <f>IFERROR((E142-D142)/D142*100,"")</f>
+        <f t="shared" si="2"/>
         <v>202.75000000000003</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C143" s="3">
         <v>1999</v>
@@ -5245,19 +5239,19 @@
         <v>448.2</v>
       </c>
       <c r="F143" s="3">
-        <f>IFERROR((E143-D143)/D143*100,"")</f>
+        <f t="shared" si="2"/>
         <v>244.76923076923077</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="3">
         <v>1999</v>
@@ -5269,19 +5263,19 @@
         <v>497.4</v>
       </c>
       <c r="F144" s="3">
-        <f>IFERROR((E144-D144)/D144*100,"")</f>
+        <f t="shared" si="2"/>
         <v>452.66666666666663</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C145" s="3">
         <v>2000</v>
@@ -5293,19 +5287,19 @@
         <v>90.9</v>
       </c>
       <c r="F145" s="3">
-        <f>IFERROR((E145-D145)/D145*100,"")</f>
+        <f t="shared" si="2"/>
         <v>6.9411764705882426</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C146" s="3">
         <v>2000</v>
@@ -5317,19 +5311,19 @@
         <v>96.2</v>
       </c>
       <c r="F146" s="3">
-        <f>IFERROR((E146-D146)/D146*100,"")</f>
+        <f t="shared" si="2"/>
         <v>220.66666666666666</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C147" s="3">
         <v>2000</v>
@@ -5341,19 +5335,19 @@
         <v>349.8</v>
       </c>
       <c r="F147" s="3">
-        <f>IFERROR((E147-D147)/D147*100,"")</f>
+        <f t="shared" si="2"/>
         <v>174.35294117647061</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C148" s="3">
         <v>2000</v>
@@ -5365,19 +5359,19 @@
         <v>169.3</v>
       </c>
       <c r="F148" s="3">
-        <f>IFERROR((E148-D148)/D148*100,"")</f>
+        <f t="shared" si="2"/>
         <v>69.300000000000011</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C149" s="3">
         <v>2001</v>
@@ -5389,19 +5383,19 @@
         <v>44.5</v>
       </c>
       <c r="F149" s="3">
-        <f>IFERROR((E149-D149)/D149*100,"")</f>
+        <f t="shared" si="2"/>
         <v>93.478260869565219</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C150" s="3">
         <v>2001</v>
@@ -5413,19 +5407,19 @@
         <v>186.1</v>
       </c>
       <c r="F150" s="3">
-        <f>IFERROR((E150-D150)/D150*100,"")</f>
+        <f t="shared" si="2"/>
         <v>55.083333333333329</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="3">
         <v>2001</v>
@@ -5437,19 +5431,19 @@
         <v>577.4</v>
       </c>
       <c r="F151" s="3">
-        <f>IFERROR((E151-D151)/D151*100,"")</f>
+        <f t="shared" si="2"/>
         <v>402.08695652173913</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C152" s="3">
         <v>2002</v>
@@ -5461,19 +5455,19 @@
         <v>115.1</v>
       </c>
       <c r="F152" s="3">
-        <f>IFERROR((E152-D152)/D152*100,"")</f>
+        <f t="shared" si="2"/>
         <v>475.5</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C153" s="3">
         <v>2002</v>
@@ -5485,19 +5479,19 @@
         <v>273.10000000000002</v>
       </c>
       <c r="F153" s="3">
-        <f>IFERROR((E153-D153)/D153*100,"")</f>
+        <f t="shared" si="2"/>
         <v>241.37500000000003</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C154" s="3">
         <v>2002</v>
@@ -5509,19 +5503,19 @@
         <v>109.6</v>
       </c>
       <c r="F154" s="3">
-        <f>IFERROR((E154-D154)/D154*100,"")</f>
+        <f t="shared" si="2"/>
         <v>-21.714285714285719</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C155" s="3">
         <v>2003</v>
@@ -5533,19 +5527,19 @@
         <v>135.69999999999999</v>
       </c>
       <c r="F155" s="3">
-        <f>IFERROR((E155-D155)/D155*100,"")</f>
+        <f t="shared" si="2"/>
         <v>578.49999999999989</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C156" s="3">
         <v>2003</v>
@@ -5557,19 +5551,19 @@
         <v>62.9</v>
       </c>
       <c r="F156" s="3">
-        <f>IFERROR((E156-D156)/D156*100,"")</f>
+        <f t="shared" si="2"/>
         <v>36.739130434782609</v>
       </c>
       <c r="G156" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C157" s="3">
         <v>2003</v>
@@ -5581,19 +5575,19 @@
         <v>940.3</v>
       </c>
       <c r="F157" s="3">
-        <f>IFERROR((E157-D157)/D157*100,"")</f>
+        <f t="shared" si="2"/>
         <v>900.31914893617022</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C158" s="3">
         <v>2003</v>
@@ -5605,19 +5599,19 @@
         <v>250.4</v>
       </c>
       <c r="F158" s="3">
-        <f>IFERROR((E158-D158)/D158*100,"")</f>
+        <f t="shared" si="2"/>
         <v>444.34782608695656</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C159" s="3">
         <v>2004</v>
@@ -5629,19 +5623,19 @@
         <v>6.5</v>
       </c>
       <c r="F159" s="3">
-        <f>IFERROR((E159-D159)/D159*100,"")</f>
+        <f t="shared" si="2"/>
         <v>-35</v>
       </c>
       <c r="G159" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C160" s="3">
         <v>2004</v>
@@ -5653,19 +5647,19 @@
         <v>145.5</v>
       </c>
       <c r="F160" s="3">
-        <f>IFERROR((E160-D160)/D160*100,"")</f>
+        <f t="shared" si="2"/>
         <v>32.272727272727273</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C161" s="3">
         <v>2004</v>
@@ -5677,19 +5671,19 @@
         <v>633</v>
       </c>
       <c r="F161" s="3">
-        <f>IFERROR((E161-D161)/D161*100,"")</f>
+        <f t="shared" si="2"/>
         <v>588.04347826086951</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" s="3">
         <v>2005</v>
@@ -5701,19 +5695,19 @@
         <v>52.9</v>
       </c>
       <c r="F162" s="3">
-        <f>IFERROR((E162-D162)/D162*100,"")</f>
+        <f t="shared" si="2"/>
         <v>164.5</v>
       </c>
       <c r="G162" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C163" s="3">
         <v>2005</v>
@@ -5725,19 +5719,19 @@
         <v>61.7</v>
       </c>
       <c r="F163" s="3">
-        <f>IFERROR((E163-D163)/D163*100,"")</f>
+        <f t="shared" si="2"/>
         <v>76.285714285714292</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C164" s="3">
         <v>2005</v>
@@ -5749,19 +5743,19 @@
         <v>314.39999999999998</v>
       </c>
       <c r="F164" s="3">
-        <f>IFERROR((E164-D164)/D164*100,"")</f>
+        <f t="shared" si="2"/>
         <v>109.59999999999998</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C165" s="3">
         <v>2006</v>
@@ -5771,19 +5765,19 @@
         <v>35</v>
       </c>
       <c r="F165" s="3" t="str">
-        <f>IFERROR((E165-D165)/D165*100,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G165" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C166" s="3">
         <v>2006</v>
@@ -5795,19 +5789,19 @@
         <v>102.3</v>
       </c>
       <c r="F166" s="3">
-        <f>IFERROR((E166-D166)/D166*100,"")</f>
+        <f t="shared" si="2"/>
         <v>27.874999999999993</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C167" s="3">
         <v>2006</v>
@@ -5819,19 +5813,19 @@
         <v>462</v>
       </c>
       <c r="F167" s="3">
-        <f>IFERROR((E167-D167)/D167*100,"")</f>
+        <f t="shared" si="2"/>
         <v>285</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C168" s="3">
         <v>2007</v>
@@ -5841,19 +5835,19 @@
         <v>169.3</v>
       </c>
       <c r="F168" s="3" t="str">
-        <f>IFERROR((E168-D168)/D168*100,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G168" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C169" s="3">
         <v>2007</v>
@@ -5865,19 +5859,19 @@
         <v>620.70000000000005</v>
       </c>
       <c r="F169" s="3">
-        <f>IFERROR((E169-D169)/D169*100,"")</f>
+        <f t="shared" si="2"/>
         <v>313.8</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C170" s="3">
         <v>2007</v>
@@ -5887,19 +5881,19 @@
         <v>340.5</v>
       </c>
       <c r="F170" s="3" t="str">
-        <f>IFERROR((E170-D170)/D170*100,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G170" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C171" s="3">
         <v>2008</v>
@@ -5911,19 +5905,19 @@
         <v>533.29999999999995</v>
       </c>
       <c r="F171" s="3">
-        <f>IFERROR((E171-D171)/D171*100,"")</f>
+        <f t="shared" si="2"/>
         <v>196.27777777777774</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C172" s="3">
         <v>2008</v>
@@ -5935,19 +5929,19 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F172" s="3">
-        <f>IFERROR((E172-D172)/D172*100,"")</f>
+        <f t="shared" si="2"/>
         <v>-81.599999999999994</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C173" s="3">
         <v>2008</v>
@@ -5959,19 +5953,19 @@
         <v>310</v>
       </c>
       <c r="F173" s="3">
-        <f>IFERROR((E173-D173)/D173*100,"")</f>
+        <f t="shared" si="2"/>
         <v>106.66666666666667</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" s="3">
         <v>2009</v>
@@ -5983,19 +5977,19 @@
         <v>735.1</v>
       </c>
       <c r="F174" s="3">
-        <f>IFERROR((E174-D174)/D174*100,"")</f>
+        <f t="shared" si="2"/>
         <v>320.05714285714288</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C175" s="3">
         <v>2009</v>
@@ -6007,19 +6001,19 @@
         <v>8.6</v>
       </c>
       <c r="F175" s="3">
-        <f>IFERROR((E175-D175)/D175*100,"")</f>
+        <f t="shared" si="2"/>
         <v>-75.428571428571416</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C176" s="3">
         <v>2009</v>
@@ -6031,19 +6025,19 @@
         <v>375</v>
       </c>
       <c r="F176" s="3">
-        <f>IFERROR((E176-D176)/D176*100,"")</f>
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C177" s="3">
         <v>2009</v>
@@ -6055,19 +6049,19 @@
         <v>270</v>
       </c>
       <c r="F177" s="3">
-        <f>IFERROR((E177-D177)/D177*100,"")</f>
+        <f t="shared" si="2"/>
         <v>31.707317073170731</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C178" s="3">
         <v>2010</v>
@@ -6079,447 +6073,447 @@
         <v>1067</v>
       </c>
       <c r="F178" s="3">
-        <f>IFERROR((E178-D178)/D178*100,"")</f>
+        <f t="shared" si="2"/>
         <v>433.5</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C179" s="3">
         <v>2010</v>
       </c>
       <c r="D179" s="3">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="E179" s="3">
-        <v>68.7</v>
+        <v>592.4</v>
       </c>
       <c r="F179" s="3">
-        <f>IFERROR((E179-D179)/D179*100,"")</f>
-        <v>212.27272727272731</v>
+        <f t="shared" si="2"/>
+        <v>127.84615384615383</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C180" s="3">
         <v>2010</v>
       </c>
       <c r="D180" s="3">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="E180" s="3">
-        <v>592.4</v>
+        <v>193.9</v>
       </c>
       <c r="F180" s="3">
-        <f>IFERROR((E180-D180)/D180*100,"")</f>
-        <v>127.84615384615383</v>
+        <f t="shared" si="2"/>
+        <v>438.61111111111109</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C181" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D181" s="3">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E181" s="3">
-        <v>193.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F181" s="3">
-        <f>IFERROR((E181-D181)/D181*100,"")</f>
-        <v>438.61111111111109</v>
+        <f t="shared" si="2"/>
+        <v>-73.866666666666674</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>447</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C182" s="3">
         <v>2011</v>
       </c>
       <c r="D182" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E182" s="3">
-        <v>39.200000000000003</v>
+        <v>562.1</v>
       </c>
       <c r="F182" s="3">
-        <f>IFERROR((E182-D182)/D182*100,"")</f>
-        <v>-73.866666666666674</v>
+        <f t="shared" si="2"/>
+        <v>181.05</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C183" s="3">
         <v>2011</v>
       </c>
       <c r="D183" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E183" s="3">
-        <v>562.1</v>
+        <v>50.1</v>
       </c>
       <c r="F183" s="3">
-        <f>IFERROR((E183-D183)/D183*100,"")</f>
-        <v>181.05</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C184" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D184" s="3">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="E184" s="3">
-        <v>50.1</v>
+        <v>540.4</v>
       </c>
       <c r="F184" s="3">
-        <f>IFERROR((E184-D184)/D184*100,"")</f>
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>192.1081081081081</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C185" s="3">
         <v>2012</v>
       </c>
       <c r="D185" s="3">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="E185" s="3">
-        <v>540.4</v>
+        <v>67.5</v>
       </c>
       <c r="F185" s="3">
-        <f>IFERROR((E185-D185)/D185*100,"")</f>
-        <v>192.1081081081081</v>
+        <f t="shared" si="2"/>
+        <v>92.857142857142861</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>449</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C186" s="3">
         <v>2012</v>
       </c>
       <c r="D186" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E186" s="3">
-        <v>67.5</v>
+        <v>81.5</v>
       </c>
       <c r="F186" s="3">
-        <f>IFERROR((E186-D186)/D186*100,"")</f>
-        <v>92.857142857142861</v>
+        <f t="shared" si="2"/>
+        <v>108.97435897435896</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>299</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C187" s="3">
         <v>2012</v>
       </c>
       <c r="D187" s="3">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="E187" s="3">
-        <v>81.5</v>
+        <v>471.2</v>
       </c>
       <c r="F187" s="3">
-        <f>IFERROR((E187-D187)/D187*100,"")</f>
-        <v>108.97435897435896</v>
+        <f t="shared" si="2"/>
+        <v>185.57575757575756</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C188" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D188" s="3">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E188" s="3">
-        <v>471.2</v>
+        <v>743.6</v>
       </c>
       <c r="F188" s="3">
-        <f>IFERROR((E188-D188)/D188*100,"")</f>
-        <v>185.57575757575756</v>
+        <f t="shared" si="2"/>
+        <v>271.8</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C189" s="3">
         <v>2013</v>
       </c>
       <c r="D189" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E189" s="3">
-        <v>743.6</v>
+        <v>239.3</v>
       </c>
       <c r="F189" s="3">
-        <f>IFERROR((E189-D189)/D189*100,"")</f>
-        <v>271.8</v>
+        <f t="shared" si="2"/>
+        <v>378.6</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C190" s="3">
         <v>2013</v>
       </c>
       <c r="D190" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E190" s="3">
-        <v>239.3</v>
+        <v>1280</v>
       </c>
       <c r="F190" s="3">
-        <f>IFERROR((E190-D190)/D190*100,"")</f>
-        <v>378.6</v>
+        <f t="shared" si="2"/>
+        <v>753.33333333333337</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C191" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D191" s="3">
-        <v>150</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="D191" s="3"/>
       <c r="E191" s="3">
-        <v>1280</v>
-      </c>
-      <c r="F191" s="3">
-        <f>IFERROR((E191-D191)/D191*100,"")</f>
-        <v>753.33333333333337</v>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G191" s="3" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C192" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D192" s="3"/>
+        <v>2014</v>
+      </c>
+      <c r="D192" s="3">
+        <v>50</v>
+      </c>
       <c r="E192" s="3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="F192" s="3" t="str">
-        <f>IFERROR((E192-D192)/D192*100,"")</f>
-        <v/>
+        <v>147</v>
+      </c>
+      <c r="F192" s="3">
+        <f t="shared" si="2"/>
+        <v>194</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C193" s="3">
         <v>2014</v>
       </c>
       <c r="D193" s="3">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="E193" s="3">
-        <v>147</v>
+        <v>657.8</v>
       </c>
       <c r="F193" s="3">
-        <f>IFERROR((E193-D193)/D193*100,"")</f>
-        <v>194</v>
+        <f t="shared" ref="F193:F222" si="3">IFERROR((E193-D193)/D193*100,"")</f>
+        <v>298.66666666666663</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C194" s="3">
         <v>2014</v>
       </c>
       <c r="D194" s="3">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="E194" s="3">
-        <v>657.8</v>
+        <v>13.6</v>
       </c>
       <c r="F194" s="3">
-        <f>IFERROR((E194-D194)/D194*100,"")</f>
-        <v>298.66666666666663</v>
+        <f t="shared" si="3"/>
+        <v>-86.4</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C195" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D195" s="3">
-        <v>100</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="F195" s="3">
-        <f>IFERROR((E195-D195)/D195*100,"")</f>
-        <v>-86.4</v>
+        <v>31.2</v>
+      </c>
+      <c r="F195" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G195" s="3" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C196" s="3">
         <v>2015</v>
       </c>
-      <c r="D196" s="3"/>
+      <c r="D196" s="3">
+        <v>175</v>
+      </c>
       <c r="E196" s="3">
-        <v>31.2</v>
-      </c>
-      <c r="F196" s="3" t="str">
-        <f>IFERROR((E196-D196)/D196*100,"")</f>
-        <v/>
+        <v>858</v>
+      </c>
+      <c r="F196" s="3">
+        <f t="shared" si="3"/>
+        <v>390.28571428571428</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C197" s="3">
         <v>2015</v>
@@ -6528,94 +6522,94 @@
         <v>175</v>
       </c>
       <c r="E197" s="3">
-        <v>858</v>
+        <v>332.2</v>
       </c>
       <c r="F197" s="3">
-        <f>IFERROR((E197-D197)/D197*100,"")</f>
-        <v>390.28571428571428</v>
+        <f t="shared" si="3"/>
+        <v>89.828571428571422</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C198" s="3">
         <v>2015</v>
       </c>
       <c r="D198" s="3">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E198" s="3">
-        <v>332.2</v>
+        <v>1024</v>
       </c>
       <c r="F198" s="3">
-        <f>IFERROR((E198-D198)/D198*100,"")</f>
-        <v>89.828571428571422</v>
+        <f t="shared" si="3"/>
+        <v>582.66666666666674</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C199" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D199" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E199" s="3">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="F199" s="3">
-        <f>IFERROR((E199-D199)/D199*100,"")</f>
-        <v>582.66666666666674</v>
+        <f t="shared" si="3"/>
+        <v>414.49999999999994</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C200" s="3">
         <v>2016</v>
       </c>
       <c r="D200" s="3">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E200" s="3">
-        <v>1029</v>
+        <v>690.8</v>
       </c>
       <c r="F200" s="3">
-        <f>IFERROR((E200-D200)/D200*100,"")</f>
-        <v>414.49999999999994</v>
+        <f t="shared" si="3"/>
+        <v>294.74285714285713</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C201" s="3">
         <v>2016</v>
@@ -6624,546 +6618,522 @@
         <v>175</v>
       </c>
       <c r="E201" s="3">
-        <v>690.8</v>
+        <v>383.9</v>
       </c>
       <c r="F201" s="3">
-        <f>IFERROR((E201-D201)/D201*100,"")</f>
-        <v>294.74285714285713</v>
+        <f t="shared" si="3"/>
+        <v>119.37142857142855</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C202" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D202" s="3">
         <v>175</v>
       </c>
       <c r="E202" s="3">
-        <v>383.9</v>
+        <v>807.8</v>
       </c>
       <c r="F202" s="3">
-        <f>IFERROR((E202-D202)/D202*100,"")</f>
-        <v>119.37142857142855</v>
+        <f t="shared" si="3"/>
+        <v>361.59999999999997</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C203" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D203" s="3">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E203" s="3">
-        <v>807.8</v>
+        <v>1243</v>
       </c>
       <c r="F203" s="3">
-        <f>IFERROR((E203-D203)/D203*100,"")</f>
-        <v>361.59999999999997</v>
+        <f t="shared" si="3"/>
+        <v>521.5</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C204" s="3">
         <v>2018</v>
       </c>
       <c r="D204" s="3">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E204" s="3">
-        <v>1243</v>
+        <v>529.29999999999995</v>
       </c>
       <c r="F204" s="3">
-        <f>IFERROR((E204-D204)/D204*100,"")</f>
-        <v>521.5</v>
+        <f t="shared" si="3"/>
+        <v>202.45714285714286</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C205" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D205" s="3">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E205" s="3">
-        <v>529.29999999999995</v>
+        <v>1073</v>
       </c>
       <c r="F205" s="3">
-        <f>IFERROR((E205-D205)/D205*100,"")</f>
-        <v>202.45714285714286</v>
+        <f t="shared" si="3"/>
+        <v>436.5</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C206" s="3">
         <v>2019</v>
       </c>
       <c r="D206" s="3">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E206" s="3">
-        <v>1073</v>
+        <v>1657</v>
       </c>
       <c r="F206" s="3">
-        <f>IFERROR((E206-D206)/D206*100,"")</f>
-        <v>436.5</v>
+        <f t="shared" si="3"/>
+        <v>537.30769230769226</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C207" s="3">
         <v>2019</v>
       </c>
       <c r="D207" s="3">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="E207" s="3">
-        <v>1657</v>
+        <v>1450</v>
       </c>
       <c r="F207" s="3">
-        <f>IFERROR((E207-D207)/D207*100,"")</f>
-        <v>537.30769230769226</v>
+        <f t="shared" si="3"/>
+        <v>866.66666666666663</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C208" s="3">
         <v>2019</v>
       </c>
       <c r="D208" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E208" s="3">
-        <v>1450</v>
+        <v>171.6</v>
       </c>
       <c r="F208" s="3">
-        <f>IFERROR((E208-D208)/D208*100,"")</f>
-        <v>866.66666666666663</v>
+        <f t="shared" si="3"/>
+        <v>71.599999999999994</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C209" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D209" s="3">
+        <v>200</v>
+      </c>
+      <c r="E209" s="3">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F209" s="3">
+        <f t="shared" si="3"/>
+        <v>-29.349999999999994</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210">
+        <v>1942</v>
+      </c>
+      <c r="D210">
+        <v>0.6</v>
+      </c>
+      <c r="E210">
+        <v>0.96</v>
+      </c>
+      <c r="F210" s="3">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C209" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D209" s="3">
-        <v>100</v>
-      </c>
-      <c r="E209" s="3">
-        <v>171.6</v>
-      </c>
-      <c r="F209" s="3">
-        <f>IFERROR((E209-D209)/D209*100,"")</f>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C210" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D210" s="3">
-        <v>200</v>
-      </c>
-      <c r="E210" s="3">
-        <v>141.30000000000001</v>
-      </c>
-      <c r="F210" s="3">
-        <f>IFERROR((E210-D210)/D210*100,"")</f>
-        <v>-29.349999999999994</v>
-      </c>
       <c r="G210" s="3" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C211">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D211">
-        <v>0.6</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="E211">
-        <v>0.96</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F211" s="3">
-        <f>IFERROR((E211-D211)/D211*100,"")</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>1.3959390862944174</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C212">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D212">
-        <v>0.78800000000000003</v>
+        <v>2.125</v>
       </c>
       <c r="E212">
-        <v>0.79900000000000004</v>
+        <v>65</v>
       </c>
       <c r="F212" s="3">
-        <f>IFERROR((E212-D212)/D212*100,"")</f>
-        <v>1.3959390862944174</v>
+        <f t="shared" si="3"/>
+        <v>2958.8235294117649</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>451</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C213">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D213">
-        <v>2.125</v>
+        <v>1.5</v>
       </c>
       <c r="E213">
-        <v>65</v>
+        <v>3.7</v>
       </c>
       <c r="F213" s="3">
-        <f>IFERROR((E213-D213)/D213*100,"")</f>
-        <v>2958.8235294117649</v>
+        <f t="shared" si="3"/>
+        <v>146.66666666666669</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C214">
-        <v>1948</v>
+        <v>1964</v>
       </c>
       <c r="D214">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>3.7</v>
+        <v>103.1</v>
       </c>
       <c r="F214" s="3">
-        <f>IFERROR((E214-D214)/D214*100,"")</f>
-        <v>146.66666666666669</v>
+        <f t="shared" si="3"/>
+        <v>1618.3333333333333</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C215">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="E215">
-        <v>103.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F215" s="3">
-        <f>IFERROR((E215-D215)/D215*100,"")</f>
-        <v>1618.3333333333333</v>
+        <f t="shared" si="3"/>
+        <v>184.1269841269841</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C216">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="D216">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>17.899999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="F216" s="3">
-        <f>IFERROR((E216-D216)/D216*100,"")</f>
-        <v>184.1269841269841</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>310</v>
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="G216" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>228</v>
-      </c>
-      <c r="B217" t="s">
-        <v>112</v>
+        <v>227</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C217">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>50.6</v>
       </c>
       <c r="E217">
-        <v>39.6</v>
+        <v>329.8</v>
       </c>
       <c r="F217" s="3">
-        <f>IFERROR((E217-D217)/D217*100,"")</f>
-        <v>296</v>
-      </c>
-      <c r="G217" t="s">
-        <v>414</v>
+        <f t="shared" si="3"/>
+        <v>551.77865612648213</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>229</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>112</v>
+        <v>228</v>
+      </c>
+      <c r="B218" t="s">
+        <v>111</v>
       </c>
       <c r="C218">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="D218">
-        <v>50.6</v>
+        <v>38</v>
       </c>
       <c r="E218">
-        <v>329.8</v>
+        <v>28.9</v>
       </c>
       <c r="F218" s="3">
-        <f>IFERROR((E218-D218)/D218*100,"")</f>
-        <v>551.77865612648213</v>
+        <f t="shared" si="3"/>
+        <v>-23.947368421052637</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B219" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C219">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="D219">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E219">
-        <v>28.9</v>
+        <v>349.5</v>
       </c>
       <c r="F219" s="3">
-        <f>IFERROR((E219-D219)/D219*100,"")</f>
-        <v>-23.947368421052637</v>
+        <f t="shared" si="3"/>
+        <v>168.84615384615384</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C220">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="D220">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E220">
-        <v>349.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F220" s="3">
-        <f>IFERROR((E220-D220)/D220*100,"")</f>
-        <v>168.84615384615384</v>
+        <f t="shared" si="3"/>
+        <v>-9.4999999999999929</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C221">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>18.100000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F221" s="3">
-        <f>IFERROR((E221-D221)/D221*100,"")</f>
-        <v>-9.4999999999999929</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>313</v>
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="G221" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B222" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C222">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>19.399999999999999</v>
+        <v>91.4</v>
       </c>
       <c r="F222" s="3">
-        <f>IFERROR((E222-D222)/D222*100,"")</f>
-        <v>288</v>
-      </c>
-      <c r="G222" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>234</v>
-      </c>
-      <c r="B223" t="s">
-        <v>112</v>
-      </c>
-      <c r="C223">
-        <v>1993</v>
-      </c>
-      <c r="D223">
-        <v>18</v>
-      </c>
-      <c r="E223">
-        <v>91.4</v>
-      </c>
-      <c r="F223" s="3">
-        <f>IFERROR((E223-D223)/D223*100,"")</f>
+        <f t="shared" si="3"/>
         <v>407.77777777777783</v>
       </c>
-      <c r="G223" s="3" t="s">
-        <v>452</v>
+      <c r="G222" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G223" xr:uid="{455CADFE-3C93-46ED-A933-59C3A3FC0D31}"/>
+  <autoFilter ref="A1:G222" xr:uid="{455CADFE-3C93-46ED-A933-59C3A3FC0D31}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
